--- a/Lectures/Lecture 20/BeaverCreekNonlinear.xlsx
+++ b/Lectures/Lecture 20/BeaverCreekNonlinear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC86A4D-40B2-8D4C-A08A-525F52AE1930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F7AE7-B5EB-4AE9-8A91-E31CC728E7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16480" xr2:uid="{6104A393-3E47-A44F-B6F1-8183D7054201}"/>
+    <workbookView xWindow="8360" yWindow="2400" windowWidth="16180" windowHeight="10160" xr2:uid="{6104A393-3E47-A44F-B6F1-8183D7054201}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$4:$B$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$10</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
@@ -30,6 +31,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$7</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -44,12 +46,20 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -593,19 +603,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -613,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -621,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -630,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -650,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
